--- a/result/with_base/123/arousal/s13_6.xlsx
+++ b/result/with_base/123/arousal/s13_6.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9704241156578064</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8524999916553497</v>
+        <v>0.84375</v>
       </c>
       <c r="C2" t="n">
-        <v>41707.955078125</v>
+        <v>11297.83349609375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8714772733775052</v>
+        <v>0.8428965351160835</v>
       </c>
       <c r="E2" t="n">
-        <v>41710.63671875</v>
+        <v>11298.03015854779</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.8526785671710968</v>
       </c>
       <c r="C3" t="n">
-        <v>40916.5546875</v>
+        <v>10996.5966796875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.904204552823847</v>
+        <v>0.8885241606656242</v>
       </c>
       <c r="E3" t="n">
-        <v>40917.23828125</v>
+        <v>10995.83346737132</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.8794642984867096</v>
       </c>
       <c r="C4" t="n">
-        <v>40137.654296875</v>
+        <v>10697.60205078125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9272727261890065</v>
+        <v>0.9028361334520227</v>
       </c>
       <c r="E4" t="n">
-        <v>40138.02592329546</v>
+        <v>10696.73644301471</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.8900669515132904</v>
       </c>
       <c r="C5" t="n">
-        <v>39367.728515625</v>
+        <v>10402.88818359375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9347727298736572</v>
+        <v>0.9270614490789526</v>
       </c>
       <c r="E5" t="n">
-        <v>39367.29190340909</v>
+        <v>10402.36919806985</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.8989955484867096</v>
       </c>
       <c r="C6" t="n">
-        <v>38610.119140625</v>
+        <v>10114.93798828125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9421590891751376</v>
+        <v>0.9258140746284934</v>
       </c>
       <c r="E6" t="n">
-        <v>38610.21129261364</v>
+        <v>10114.01602711397</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9029017984867096</v>
       </c>
       <c r="C7" t="n">
-        <v>37864.080078125</v>
+        <v>9832.2451171875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9618181803009727</v>
+        <v>0.9470850825309753</v>
       </c>
       <c r="E7" t="n">
-        <v>37863.97869318182</v>
+        <v>9831.453814338236</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9073660671710968</v>
       </c>
       <c r="C8" t="n">
-        <v>37131.763671875</v>
+        <v>9557.30419921875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.963522732257843</v>
+        <v>0.9493172273916357</v>
       </c>
       <c r="E8" t="n">
-        <v>37131.23508522727</v>
+        <v>9555.993393841913</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9073660671710968</v>
       </c>
       <c r="C9" t="n">
-        <v>36411.25</v>
+        <v>9287.4541015625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9726136380975897</v>
+        <v>0.9606092431965996</v>
       </c>
       <c r="E9" t="n">
-        <v>36410.55255681818</v>
+        <v>9286.642750459559</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C10" t="n">
-        <v>35703.693359375</v>
+        <v>9024.00341796875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9692045504396612</v>
+        <v>0.9677652295897988</v>
       </c>
       <c r="E10" t="n">
-        <v>35703.40234375</v>
+        <v>9023.489200367647</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C11" t="n">
-        <v>35008.173828125</v>
+        <v>8767.65966796875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9769318320534446</v>
+        <v>0.9738707998219658</v>
       </c>
       <c r="E11" t="n">
-        <v>35007.79438920454</v>
+        <v>8766.875517003677</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9229910671710968</v>
       </c>
       <c r="C12" t="n">
-        <v>34326.994140625</v>
+        <v>8517.427734375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9744318236004222</v>
+        <v>0.9736081922755522</v>
       </c>
       <c r="E12" t="n">
-        <v>34325.52166193182</v>
+        <v>8516.780445772059</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C13" t="n">
-        <v>33656.552734375</v>
+        <v>8273.61279296875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.985113647851077</v>
+        <v>0.976299895959742</v>
       </c>
       <c r="E13" t="n">
-        <v>33655.2734375</v>
+        <v>8272.89453125</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9079241156578064</v>
       </c>
       <c r="C14" t="n">
-        <v>32998.26171875</v>
+        <v>8036.057861328125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9844318249008872</v>
+        <v>0.9741334038622239</v>
       </c>
       <c r="E14" t="n">
-        <v>32997.60475852273</v>
+        <v>8035.214987362132</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C15" t="n">
-        <v>32353.6162109375</v>
+        <v>7804.37353515625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9771591045639731</v>
+        <v>0.9766281527631423</v>
       </c>
       <c r="E15" t="n">
-        <v>32352.37588778409</v>
+        <v>7803.60986328125</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.94921875</v>
       </c>
       <c r="C16" t="n">
-        <v>31719.302734375</v>
+        <v>7578.283447265625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9829545562917535</v>
+        <v>0.9875919117647058</v>
       </c>
       <c r="E16" t="n">
-        <v>31718.89204545454</v>
+        <v>7577.898552389706</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C17" t="n">
-        <v>31099.2099609375</v>
+        <v>7358.759521484375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.973068193955855</v>
+        <v>0.984112395959742</v>
       </c>
       <c r="E17" t="n">
-        <v>31097.42276278409</v>
+        <v>7358.120921415441</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9157366156578064</v>
       </c>
       <c r="C18" t="n">
-        <v>30487.654296875</v>
+        <v>7144.8837890625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9865909218788147</v>
+        <v>0.9781381312538596</v>
       </c>
       <c r="E18" t="n">
-        <v>30487.18341619318</v>
+        <v>7144.155589384191</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9525669515132904</v>
       </c>
       <c r="C19" t="n">
-        <v>29888.8994140625</v>
+        <v>6936.1064453125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9918181896209717</v>
+        <v>0.984637604040258</v>
       </c>
       <c r="E19" t="n">
-        <v>29888.14293323864</v>
+        <v>6935.71964039522</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C20" t="n">
-        <v>29301.546875</v>
+        <v>6733.28515625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9892045476219871</v>
+        <v>0.9834558823529411</v>
       </c>
       <c r="E20" t="n">
-        <v>29300.39932528409</v>
+        <v>6732.74764476103</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C21" t="n">
-        <v>28724.2255859375</v>
+        <v>6535.836181640625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9913636445999146</v>
+        <v>0.9759059863931993</v>
       </c>
       <c r="E21" t="n">
-        <v>28723.47194602273</v>
+        <v>6535.264361213235</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C22" t="n">
-        <v>28157.916015625</v>
+        <v>6343.60400390625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9735425430185655</v>
       </c>
       <c r="E22" t="n">
-        <v>28157.29794034091</v>
+        <v>6343.013212316177</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.94921875</v>
       </c>
       <c r="C23" t="n">
-        <v>27602.486328125</v>
+        <v>6156.1591796875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.9875262590015635</v>
       </c>
       <c r="E23" t="n">
-        <v>27601.96626420454</v>
+        <v>6155.730296415441</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C24" t="n">
-        <v>27057.9453125</v>
+        <v>5974.12158203125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9915909171104431</v>
+        <v>0.9832589275696698</v>
       </c>
       <c r="E24" t="n">
-        <v>27056.93306107954</v>
+        <v>5973.624770220588</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C25" t="n">
-        <v>26522.767578125</v>
+        <v>5796.779296875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9898240531192106</v>
       </c>
       <c r="E25" t="n">
-        <v>26522.01083096591</v>
+        <v>5796.377585018382</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C26" t="n">
-        <v>25998.595703125</v>
+        <v>5624.31982421875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9912500002167441</v>
+        <v>0.9829306707662695</v>
       </c>
       <c r="E26" t="n">
-        <v>25997.23597301136</v>
+        <v>5623.994829963235</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C27" t="n">
-        <v>25483.5419921875</v>
+        <v>5456.547607421875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9943181872367859</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E27" t="n">
-        <v>25482.31906960227</v>
+        <v>5456.168744255515</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C28" t="n">
-        <v>24977.86328125</v>
+        <v>5293.271728515625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E28" t="n">
-        <v>24977.06125710227</v>
+        <v>5292.951602711397</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9654017984867096</v>
       </c>
       <c r="C29" t="n">
-        <v>24482.5791015625</v>
+        <v>5134.439697265625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9902272820472717</v>
+        <v>0.9917279411764706</v>
       </c>
       <c r="E29" t="n">
-        <v>24481.41672585227</v>
+        <v>5134.199333639706</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C30" t="n">
-        <v>23995.896484375</v>
+        <v>4980.04736328125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9921590956774625</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E30" t="n">
-        <v>23994.91867897727</v>
+        <v>4979.79385914522</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9704241156578064</v>
       </c>
       <c r="C31" t="n">
-        <v>23518.0732421875</v>
+        <v>4829.771728515625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9953387590015635</v>
       </c>
       <c r="E31" t="n">
-        <v>23517.54651988636</v>
+        <v>4829.579360064338</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.949999988079071</v>
+        <v>0.96484375</v>
       </c>
       <c r="C32" t="n">
-        <v>23050.16015625</v>
+        <v>4683.814453125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9929545521736145</v>
+        <v>0.9875262590015635</v>
       </c>
       <c r="E32" t="n">
-        <v>23049.28000710227</v>
+        <v>4683.56746897978</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C33" t="n">
-        <v>22590.4267578125</v>
+        <v>4541.783447265625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9972426470588235</v>
       </c>
       <c r="E33" t="n">
-        <v>22589.74147727273</v>
+        <v>4541.495260799632</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C34" t="n">
-        <v>22139.4580078125</v>
+        <v>4403.621826171875</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.995798317825093</v>
       </c>
       <c r="E34" t="n">
-        <v>22138.93039772727</v>
+        <v>4403.386086856618</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C35" t="n">
-        <v>21697.5888671875</v>
+        <v>4269.351806640625</v>
       </c>
       <c r="D35" t="n">
-        <v>0.993977275761691</v>
+        <v>0.9883797273916357</v>
       </c>
       <c r="E35" t="n">
-        <v>21696.62855113636</v>
+        <v>4269.109432444853</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C36" t="n">
-        <v>21263.2138671875</v>
+        <v>4138.841796875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9839154411764706</v>
       </c>
       <c r="E36" t="n">
-        <v>21262.58309659091</v>
+        <v>4138.54874195772</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C37" t="n">
-        <v>20837.4013671875</v>
+        <v>4011.820068359375</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E37" t="n">
-        <v>20836.76686789773</v>
+        <v>4011.56685144761</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C38" t="n">
-        <v>20419.353515625</v>
+        <v>3888.415649414062</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9946590932932767</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E38" t="n">
-        <v>20419.00550426136</v>
+        <v>3888.179184857537</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9659598171710968</v>
       </c>
       <c r="C39" t="n">
-        <v>20009.5625</v>
+        <v>3768.435180664062</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E39" t="n">
-        <v>20009.07421875</v>
+        <v>3768.229793772978</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C40" t="n">
-        <v>19607.720703125</v>
+        <v>3651.908203125</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9906775215092827</v>
       </c>
       <c r="E40" t="n">
-        <v>19606.96075994318</v>
+        <v>3651.648107192096</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9575892984867096</v>
       </c>
       <c r="C41" t="n">
-        <v>19213.1376953125</v>
+        <v>3538.419067382812</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9961922273916357</v>
       </c>
       <c r="E41" t="n">
-        <v>19212.43252840909</v>
+        <v>3538.308924057904</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C42" t="n">
-        <v>18825.9140625</v>
+        <v>3428.6591796875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9759059863931993</v>
       </c>
       <c r="E42" t="n">
-        <v>18825.36789772727</v>
+        <v>3428.259794347427</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C43" t="n">
-        <v>18446.1533203125</v>
+        <v>3321.554931640625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9801076685681063</v>
       </c>
       <c r="E43" t="n">
-        <v>18445.62091619318</v>
+        <v>3321.249267578125</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C44" t="n">
-        <v>18073.52734375</v>
+        <v>3217.311889648438</v>
       </c>
       <c r="D44" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9967174354721519</v>
       </c>
       <c r="E44" t="n">
-        <v>18073.09428267046</v>
+        <v>3217.211052389706</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9375</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C45" t="n">
-        <v>17708.484375</v>
+        <v>3116.33056640625</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9918181896209717</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E45" t="n">
-        <v>17707.65465198864</v>
+        <v>3116.198400160846</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C46" t="n">
-        <v>17349.263671875</v>
+        <v>3018.190795898438</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E46" t="n">
-        <v>17349.01740056818</v>
+        <v>3018.039938534007</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C47" t="n">
-        <v>16997.697265625</v>
+        <v>2922.9462890625</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9927272796630859</v>
+        <v>0.9806985294117647</v>
       </c>
       <c r="E47" t="n">
-        <v>16997.29527698864</v>
+        <v>2922.72611730239</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.94921875</v>
       </c>
       <c r="C48" t="n">
-        <v>16652.4765625</v>
+        <v>2830.2275390625</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9892988450386945</v>
       </c>
       <c r="E48" t="n">
-        <v>16652.16281960227</v>
+        <v>2830.078024471507</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9614955484867096</v>
       </c>
       <c r="C49" t="n">
-        <v>16314.02685546875</v>
+        <v>2740.21875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9952272772789001</v>
+        <v>0.9972426470588235</v>
       </c>
       <c r="E49" t="n">
-        <v>16313.65704900568</v>
+        <v>2740.083323759191</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9614955484867096</v>
       </c>
       <c r="C50" t="n">
-        <v>15981.9111328125</v>
+        <v>2652.833740234375</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9953387590015635</v>
       </c>
       <c r="E50" t="n">
-        <v>15981.54208096591</v>
+        <v>2652.700295840993</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,927 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9704241156578064</v>
       </c>
       <c r="C51" t="n">
-        <v>15656.41259765625</v>
+        <v>2567.932495117188</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9921590956774625</v>
+        <v>0.9912683823529411</v>
       </c>
       <c r="E51" t="n">
-        <v>15655.8447265625</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15336.47509765625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15336.23881392045</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15023.107421875</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15022.75577059659</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14715.6142578125</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14715.22638494318</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14413.86376953125</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14413.57279829545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9275000095367432</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14118.6181640625</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9838636517524719</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14117.79163707386</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13827.70068359375</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13827.49662642045</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13543.2529296875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13542.82963423295</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13263.7978515625</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13263.58575994318</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12990.0146484375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9984090924263</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12989.69930752841</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12721.28173828125</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12721.05726207386</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12457.82666015625</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12457.57057883523</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12199.2626953125</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12199.13645241477</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11945.98095703125</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11945.68172940341</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11697.27880859375</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11697.06853693182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11453.45068359375</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11453.24857954545</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11214.29150390625</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11214.12215909091</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9724999964237213</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10979.8291015625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10979.60466974432</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9724999964237213</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10749.83935546875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10749.60484730114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10524.24853515625</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10524.05912642045</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10303.05810546875</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10302.85981889205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10086.1953125</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10085.94655539773</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9873.49169921875</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9873.258522727272</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9724999964237213</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9664.92431640625</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9664.70889559659</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9460.3916015625</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9460.181196732954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9259.81396484375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9259.639026988636</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9063.212890625</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9063.017578125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8870.41357421875</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8870.226740056818</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8681.35205078125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9920454621315002</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8681.2236328125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8496.02685546875</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9929545521736145</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8495.876775568182</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8314.34423828125</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8314.161754261364</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1212121212121212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1515151515151515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2121212121212121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8181818181818182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.004830917874396135</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8181818181818182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.004830917874396135</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8484848484848485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01449275362318841</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8484848484848485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.01449275362318841</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8787878787878788</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.02898550724637681</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8787878787878788</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.02898550724637681</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.03864734299516908</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.03864734299516908</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9393939393939394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1545893719806763</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9393939393939394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.1545893719806763</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.3719806763285024</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>0.3719806763285024</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9814082857561118</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9631093544137022</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9631093544137022</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8695652173913043</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9631093544137022</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.893719806763285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9631093544137022</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9227053140096618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9631093544137022</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.961352657004831</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9631093544137022</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.961352657004831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9631093544137022</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9710144927536232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.1212121212121212</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9631093544137022</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9710144927536232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1212121212121212</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9631093544137022</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9855072463768116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1515151515151515</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9631093544137022</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9855072463768116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1515151515151515</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9631093544137022</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9951690821256038</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9631093544137022</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9951690821256038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9631093544137022</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9631093544137022</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>2567.851878446691</v>
       </c>
     </row>
   </sheetData>
